--- a/src/testdata/timeDta.xlsx
+++ b/src/testdata/timeDta.xlsx
@@ -28,7 +28,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="152">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>types of tests</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Auto gen data test (Yes/No)</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
   <si>
     <t>projectToSearchs</t>
   </si>
@@ -75,6 +96,9 @@
     <t>Bug ID 2</t>
   </si>
   <si>
+    <t>Màn Edit Timesheet</t>
+  </si>
+  <si>
     <t>Chu Khánh Linh</t>
   </si>
   <si>
@@ -111,6 +135,10 @@
     <t>Enter value into the table</t>
   </si>
   <si>
+    <t>MESSSAGE
+Pre: Login OrangHRM5 &gt;&gt; My Info</t>
+  </si>
+  <si>
     <t>Hoàng Xuân Hoa</t>
   </si>
   <si>
@@ -144,6 +172,25 @@
     <t>Click button Save</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the color of the error message for the the combox "Project"
+1. Leave the field blank or enter only space characters.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>rgb(235, 9, 16)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Khúc Thùy Trạng</t>
   </si>
   <si>
@@ -177,7 +224,11 @@
     <t>Ex: The value of each cell correctly</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t xml:space="preserve">Check the color of the error message for the dropdown "Activity"
+1. Leave the field blank or enter only space characters.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
   </si>
   <si>
     <t>Lê Quý Hòa</t>
@@ -213,12 +264,29 @@
     <t>Ex: The value sum of each row correctly</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Tue"
+1. Enter alphabetic characters into the textbox.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>DATA EDIT</t>
   </si>
   <si>
     <t>Ex: The value sum of the sum column correctly</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Wed"
+1. Enter alphabetic characters into the textbox.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
     <t>Nguyễn Văn Hiển</t>
   </si>
   <si>
@@ -252,6 +320,13 @@
     <t>Ex: The value sum of Tue column correctly</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Thu"
+1. Enter alphabetic characters into the textbox.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
     <t>Phạm Văn Chí</t>
   </si>
   <si>
@@ -285,6 +360,13 @@
     <t>Ex: The value sum of the Wed column correctly</t>
   </si>
   <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Fri"
+1. Enter alphabetic characters into the textbox.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
     <t>Phùng Lệ Phương</t>
   </si>
   <si>
@@ -318,34 +400,88 @@
     <t xml:space="preserve">Ex: The value sum of the Thu column correctly </t>
   </si>
   <si>
-    <t>Đinh Xuân Đan</t>
-  </si>
-  <si>
-    <t>Đinh Xuân Đan - Project 8</t>
-  </si>
-  <si>
-    <t>Hoạt động 8</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>10:01</t>
-  </si>
-  <si>
-    <t>10:02</t>
-  </si>
-  <si>
-    <t>10:03</t>
-  </si>
-  <si>
-    <t>10:04</t>
-  </si>
-  <si>
-    <t>10:05</t>
-  </si>
-  <si>
-    <t>10:06</t>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Sat"
+1. Enter alphabetic characters into the textbox.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Sun"
+1. Enter alphabetic characters into the textbox.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Mon"
+1. Enter alphabetic characters into the textbox.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Click button Submit</t>
+  </si>
+  <si>
+    <t>Check when entering alphabetic characters
+1.Enter alphabetic characters
+2. The system displays an error message: "Should Be Less Than 24 and in HH:MM or Decimal Format"</t>
+  </si>
+  <si>
+    <t>Should Be Less Than 24 and in HH:MM or Decimal Format</t>
+  </si>
+  <si>
+    <t>Ex: Display Submit status</t>
+  </si>
+  <si>
+    <t>DB - Check save unsucessfully</t>
+  </si>
+  <si>
+    <t>Ex: The value Actions,Performed By, Date,Comment correctly</t>
+  </si>
+  <si>
+    <t>Check when entering 24 hours
+1. Enter 24h
+2. The system displays an error message: "Should Be Less Than 24 and in HH:MM or Decimal Format"</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>logout employee account</t>
+  </si>
+  <si>
+    <t>DB- Check save unsucessfully</t>
+  </si>
+  <si>
+    <t>login with admin account</t>
+  </si>
+  <si>
+    <t>Check when entering more than 24 hours
+1. Enter a value greater than 24h
+2. The system displays an error message: "Should Be Less Than 24 and in HH:MM or Decimal Format"</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search employee that approved </t>
+  </si>
+  <si>
+    <t>Ex : Search successfully</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Click View</t>
+  </si>
+  <si>
+    <t>Thu</t>
   </si>
   <si>
     <t xml:space="preserve">Ex: The value sum of the Sat column correctly </t>
@@ -357,36 +493,15 @@
     <t xml:space="preserve">Ex: The value sum of the Mon column correctly </t>
   </si>
   <si>
-    <t>Click button Submit</t>
-  </si>
-  <si>
-    <t>Ex: Display Submit status</t>
-  </si>
-  <si>
-    <t>Ex: The value Actions,Performed By, Date,Comment correctly</t>
-  </si>
-  <si>
-    <t>logout employee account</t>
-  </si>
-  <si>
-    <t>login with admin account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search employee that approved </t>
-  </si>
-  <si>
-    <t>Ex : Search successfully</t>
-  </si>
-  <si>
-    <t>Click View</t>
-  </si>
-  <si>
     <t>Click button Reject</t>
   </si>
   <si>
     <t>Ex: Display Reject status</t>
   </si>
   <si>
+    <t>Fri</t>
+  </si>
+  <si>
     <t>enter commnent</t>
   </si>
   <si>
@@ -403,6 +518,15 @@
   </si>
   <si>
     <t>Ex: Display status approve</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
   </si>
 </sst>
 </file>
@@ -415,7 +539,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +551,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -583,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +733,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,165 +1094,207 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,24 +1830,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="27.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="15.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="21.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="51.8181818181818" customWidth="1"/>
-    <col min="13" max="13" width="12.4545454545455" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="1" max="1" width="41.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="41.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="24.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="21.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="25.1818181818182" customWidth="1"/>
+    <col min="18" max="18" width="19.8181818181818" customWidth="1"/>
+    <col min="19" max="19" width="27.9090909090909" customWidth="1"/>
+    <col min="20" max="20" width="15.7272727272727" customWidth="1"/>
+    <col min="28" max="28" width="21.8181818181818" customWidth="1"/>
+    <col min="29" max="29" width="51.8181818181818" customWidth="1"/>
+    <col min="30" max="30" width="12.4545454545455" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,641 +1874,1476 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="V1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="W1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="X1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Y1" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Z1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="R2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="S2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="U2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="V2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="W2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="X2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="Y2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="Z2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="AA2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="AB2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="AC2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+    </row>
+    <row r="3" ht="29" spans="1:32">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="R3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="S3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
+      <c r="T3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="U3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="V3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="W3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="X3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="Y3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="Z3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="AA3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="AC3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+    </row>
+    <row r="4" ht="104" customHeight="1" spans="1:32">
+      <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="R4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="S4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="T4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="U4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="V4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="W4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="X4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="Y4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Z4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="AA4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="19"/>
+    </row>
+    <row r="5" ht="97" customHeight="1" spans="1:32">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="R5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="19"/>
+    </row>
+    <row r="6" ht="89" customHeight="1" spans="1:32">
+      <c r="A6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="R6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AC6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="19"/>
+    </row>
+    <row r="7" ht="90" customHeight="1" spans="1:32">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="R7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="19"/>
+    </row>
+    <row r="8" ht="88" customHeight="1" spans="1:32">
+      <c r="A8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="R8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="19"/>
+    </row>
+    <row r="9" ht="87" customHeight="1" spans="1:32">
+      <c r="A9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="R9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="19"/>
+    </row>
+    <row r="10" customFormat="1" ht="87" customHeight="1" spans="1:32">
+      <c r="A10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="R10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="19"/>
+    </row>
+    <row r="11" customFormat="1" ht="87" customHeight="1" spans="1:32">
+      <c r="A11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="R11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA11" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="19"/>
+    </row>
+    <row r="12" customFormat="1" ht="85" customHeight="1" spans="1:32">
+      <c r="A12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="R12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="19"/>
+    </row>
+    <row r="13" ht="31" customHeight="1" spans="1:32">
+      <c r="A13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="AC13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+    </row>
+    <row r="14" ht="72.5" spans="1:32">
+      <c r="A14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="AC14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="19"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="AC15" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" s="19"/>
+    </row>
+    <row r="16" ht="72.5" spans="1:32">
+      <c r="A16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="AC16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="AC17" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+    </row>
+    <row r="18" ht="72.5" spans="1:32">
+      <c r="A18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="AC18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="AC19" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF19" s="19"/>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="AC20" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+    </row>
+    <row r="21" ht="72.5" spans="1:32">
+      <c r="A21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="AC21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF21" s="19"/>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="AC22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF22" s="19"/>
+    </row>
+    <row r="23" ht="72.5" spans="1:32">
+      <c r="A23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="AC23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF23" s="19"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="AC24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF24" s="19"/>
+    </row>
+    <row r="25" ht="72.5" spans="1:32">
+      <c r="A25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="AC25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" s="19"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="AC26" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF26" s="19"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="AC27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF27" s="19"/>
+    </row>
+    <row r="28" ht="72.5" spans="1:32">
+      <c r="A28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="12:15">
-      <c r="L11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="12:15">
-      <c r="L12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="12:15">
-      <c r="L13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="12:15">
-      <c r="L14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="12:15">
-      <c r="L15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="12:15">
-      <c r="L16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="12:15">
-      <c r="L17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="12:15">
-      <c r="L18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="12:15">
-      <c r="L19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="12:15">
-      <c r="L20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="12:15">
-      <c r="L21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="12:15">
-      <c r="L22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="12:15">
-      <c r="L23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="12:15">
-      <c r="L24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="12:15">
-      <c r="L25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="12:15">
-      <c r="L26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="12:15">
-      <c r="L27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="12:15">
-      <c r="L28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="12:15">
-      <c r="L29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="12:15">
-      <c r="L30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="12:15">
-      <c r="L31" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="12:15">
-      <c r="L32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="12:15">
-      <c r="L33" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="12:15">
-      <c r="L34" s="6" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="AC28" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF28" s="19"/>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="AC29" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF29" s="19"/>
+    </row>
+    <row r="30" ht="72.5" spans="1:32">
+      <c r="A30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="AC30" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF30" s="19"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="AC31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+    </row>
+    <row r="32" ht="72.5" spans="1:32">
+      <c r="A32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="AC32" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF32" s="19"/>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="A33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="AC33" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="12:15">
-      <c r="L35" s="6" t="s">
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="A34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="AC34" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+    </row>
+    <row r="35" ht="72.5" spans="1:32">
+      <c r="A35" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="12:15">
-      <c r="L36" s="7" t="s">
+      <c r="B35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="12:15">
-      <c r="L37" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="12:15">
-      <c r="L38" s="6" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="AC35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="A36" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="12:15">
-      <c r="L39" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O39" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="AC36" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF36" s="19"/>
+    </row>
+    <row r="37" ht="72.5" spans="1:32">
+      <c r="A37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="AC37" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF37" s="19"/>
+    </row>
+    <row r="38" spans="1:32">
+      <c r="A38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="AC38" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+    </row>
+    <row r="39" ht="72.5" spans="1:32">
+      <c r="A39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="AC39" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF39" s="19"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" ht="72.5" spans="1:7">
+      <c r="A42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" ht="72.5" spans="1:7">
+      <c r="A44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" ht="72.5" spans="1:7">
+      <c r="A46" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" ht="72.5" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" ht="72.5" spans="1:7">
+      <c r="A51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" ht="72.5" spans="1:7">
+      <c r="A53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" ht="72.5" spans="1:7">
+      <c r="A56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" ht="72.5" spans="1:7">
+      <c r="A58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" ht="72.5" spans="1:7">
+      <c r="A60" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
